--- a/backend/routes/exportAttendeeData/csvAttendeesRequested/event-65a6cdd33672dda8c0145afc-attendees.xlsx
+++ b/backend/routes/exportAttendeeData/csvAttendeesRequested/event-65a6cdd33672dda8c0145afc-attendees.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21" count="21">
   <x:si>
     <x:t>studentId</x:t>
   </x:si>
